--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_64ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_64ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1702,28 +1702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>326.7459865299117</v>
+        <v>378.5461933028126</v>
       </c>
       <c r="AB2" t="n">
-        <v>447.0682737857912</v>
+        <v>517.9436019563112</v>
       </c>
       <c r="AC2" t="n">
-        <v>404.4007051999376</v>
+        <v>468.5117915240111</v>
       </c>
       <c r="AD2" t="n">
-        <v>326745.9865299117</v>
+        <v>378546.1933028126</v>
       </c>
       <c r="AE2" t="n">
-        <v>447068.2737857912</v>
+        <v>517943.6019563113</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.592121190932638e-06</v>
+        <v>3.736968878309807e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.72526041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>404400.7051999376</v>
+        <v>468511.7915240111</v>
       </c>
     </row>
     <row r="3">
@@ -1808,28 +1808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>159.9747315066351</v>
+        <v>194.5082026885686</v>
       </c>
       <c r="AB3" t="n">
-        <v>218.8844852343341</v>
+        <v>266.1347040146565</v>
       </c>
       <c r="AC3" t="n">
-        <v>197.9944571699365</v>
+        <v>240.7351813859785</v>
       </c>
       <c r="AD3" t="n">
-        <v>159974.7315066351</v>
+        <v>194508.2026885686</v>
       </c>
       <c r="AE3" t="n">
-        <v>218884.4852343341</v>
+        <v>266134.7040146565</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.04676399447442e-06</v>
+        <v>5.834075643575333e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.509765625</v>
       </c>
       <c r="AH3" t="n">
-        <v>197994.4571699365</v>
+        <v>240735.1813859785</v>
       </c>
     </row>
     <row r="4">
@@ -1914,28 +1914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>159.4744904807094</v>
+        <v>193.8373694620506</v>
       </c>
       <c r="AB4" t="n">
-        <v>218.2000333935864</v>
+        <v>265.2168403990619</v>
       </c>
       <c r="AC4" t="n">
-        <v>197.3753284522353</v>
+        <v>239.9049173856263</v>
       </c>
       <c r="AD4" t="n">
-        <v>159474.4904807094</v>
+        <v>193837.3694620506</v>
       </c>
       <c r="AE4" t="n">
-        <v>218200.0333935863</v>
+        <v>265216.8403990619</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.060488801414128e-06</v>
+        <v>5.853862209332332e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.483723958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>197375.3284522353</v>
+        <v>239904.9173856263</v>
       </c>
     </row>
   </sheetData>
@@ -2211,28 +2211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>227.3328802338462</v>
+        <v>269.4199980088641</v>
       </c>
       <c r="AB2" t="n">
-        <v>311.0468759546527</v>
+        <v>368.6323272471714</v>
       </c>
       <c r="AC2" t="n">
-        <v>281.360998670665</v>
+        <v>333.4505753134213</v>
       </c>
       <c r="AD2" t="n">
-        <v>227332.8802338462</v>
+        <v>269419.9980088641</v>
       </c>
       <c r="AE2" t="n">
-        <v>311046.8759546527</v>
+        <v>368632.3272471714</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.23021735117156e-06</v>
+        <v>4.728916684720889e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.733072916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>281360.998670665</v>
+        <v>333450.5753134213</v>
       </c>
     </row>
     <row r="3">
@@ -2317,28 +2317,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>153.480989078192</v>
+        <v>187.1506832982037</v>
       </c>
       <c r="AB3" t="n">
-        <v>209.9994603600459</v>
+        <v>256.0678213939173</v>
       </c>
       <c r="AC3" t="n">
-        <v>189.9574065994368</v>
+        <v>231.6290679136009</v>
       </c>
       <c r="AD3" t="n">
-        <v>153480.989078192</v>
+        <v>187150.6832982037</v>
       </c>
       <c r="AE3" t="n">
-        <v>209999.4603600459</v>
+        <v>256067.8213939173</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.097944676937774e-06</v>
+        <v>5.99923684664926e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.672526041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>189957.4065994368</v>
+        <v>231629.0679136009</v>
       </c>
     </row>
   </sheetData>
@@ -2614,28 +2614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.0920821738367</v>
+        <v>194.1613266193467</v>
       </c>
       <c r="AB2" t="n">
-        <v>223.1497819450025</v>
+        <v>265.6600928736553</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.8526799489215</v>
+        <v>240.3058664661534</v>
       </c>
       <c r="AD2" t="n">
-        <v>163092.0821738367</v>
+        <v>194161.3266193467</v>
       </c>
       <c r="AE2" t="n">
-        <v>223149.7819450025</v>
+        <v>265660.0928736553</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.885207807404914e-06</v>
+        <v>6.010896040580746e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.029947916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>201852.6799489215</v>
+        <v>240305.8664661534</v>
       </c>
     </row>
   </sheetData>
@@ -2911,28 +2911,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.0302194816951</v>
+        <v>187.0308301826524</v>
       </c>
       <c r="AB2" t="n">
-        <v>212.1191857453394</v>
+        <v>255.9038330736738</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.8748283690118</v>
+        <v>231.4807304084824</v>
       </c>
       <c r="AD2" t="n">
-        <v>155030.2194816951</v>
+        <v>187030.8301826524</v>
       </c>
       <c r="AE2" t="n">
-        <v>212119.1857453394</v>
+        <v>255903.8330736738</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.052051440606256e-06</v>
+        <v>6.123840901994535e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.284505208333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>191874.8283690118</v>
+        <v>231480.7304084824</v>
       </c>
     </row>
   </sheetData>
@@ -3208,28 +3208,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.2965485452983</v>
+        <v>213.005355384983</v>
       </c>
       <c r="AB2" t="n">
-        <v>239.8484712574842</v>
+        <v>291.443324370662</v>
       </c>
       <c r="AC2" t="n">
-        <v>216.957669790183</v>
+        <v>263.6283825360866</v>
       </c>
       <c r="AD2" t="n">
-        <v>175296.5485452983</v>
+        <v>213005.355384983</v>
       </c>
       <c r="AE2" t="n">
-        <v>239848.4712574842</v>
+        <v>291443.324370662</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.619839414882523e-06</v>
+        <v>5.721112722190364e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.06510416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>216957.669790183</v>
+        <v>263628.3825360867</v>
       </c>
     </row>
   </sheetData>
@@ -3505,28 +3505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>253.6105325827318</v>
+        <v>295.896194498916</v>
       </c>
       <c r="AB2" t="n">
-        <v>347.0011191865832</v>
+        <v>404.8582273322128</v>
       </c>
       <c r="AC2" t="n">
-        <v>313.8838193906488</v>
+        <v>366.2191263377165</v>
       </c>
       <c r="AD2" t="n">
-        <v>253610.5325827318</v>
+        <v>295896.194498916</v>
       </c>
       <c r="AE2" t="n">
-        <v>347001.1191865832</v>
+        <v>404858.2273322128</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.059346121115572e-06</v>
+        <v>4.460178762999739e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.185546875</v>
       </c>
       <c r="AH2" t="n">
-        <v>313883.8193906488</v>
+        <v>366219.1263377165</v>
       </c>
     </row>
     <row r="3">
@@ -3611,28 +3611,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.9596629370803</v>
+        <v>188.8563935468412</v>
       </c>
       <c r="AB3" t="n">
-        <v>212.0226471682624</v>
+        <v>258.4016494067271</v>
       </c>
       <c r="AC3" t="n">
-        <v>191.7875032982383</v>
+        <v>233.7401586564172</v>
       </c>
       <c r="AD3" t="n">
-        <v>154959.6629370803</v>
+        <v>188856.3935468412</v>
       </c>
       <c r="AE3" t="n">
-        <v>212022.6471682624</v>
+        <v>258401.6494067271</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.089561448741092e-06</v>
+        <v>5.962115563768344e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.620442708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>191787.5032982383</v>
+        <v>233740.1586564172</v>
       </c>
     </row>
   </sheetData>
@@ -3908,28 +3908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>180.8145622645422</v>
+        <v>225.3413932962328</v>
       </c>
       <c r="AB2" t="n">
-        <v>247.3984610657342</v>
+        <v>308.3220356684084</v>
       </c>
       <c r="AC2" t="n">
-        <v>223.7870991676133</v>
+        <v>278.8962133170016</v>
       </c>
       <c r="AD2" t="n">
-        <v>180814.5622645422</v>
+        <v>225341.3932962328</v>
       </c>
       <c r="AE2" t="n">
-        <v>247398.4610657342</v>
+        <v>308322.0356684084</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.396449081663297e-06</v>
+        <v>5.441909246827235e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.97981770833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>223787.0991676133</v>
+        <v>278896.2133170016</v>
       </c>
     </row>
   </sheetData>
@@ -4205,28 +4205,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.6538002323303</v>
+        <v>204.5014001742009</v>
       </c>
       <c r="AB2" t="n">
-        <v>234.8643023089704</v>
+        <v>279.8078376832499</v>
       </c>
       <c r="AC2" t="n">
-        <v>212.4491829307887</v>
+        <v>253.1033703676093</v>
       </c>
       <c r="AD2" t="n">
-        <v>171653.8002323303</v>
+        <v>204501.4001742009</v>
       </c>
       <c r="AE2" t="n">
-        <v>234864.3023089704</v>
+        <v>279807.8376832499</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.834349290989146e-06</v>
+        <v>5.69340746014345e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.447265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>212449.1829307887</v>
+        <v>253103.3703676093</v>
       </c>
     </row>
     <row r="3">
@@ -4311,28 +4311,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.9034453279494</v>
+        <v>182.8362966158406</v>
       </c>
       <c r="AB3" t="n">
-        <v>205.1045071708752</v>
+        <v>250.1646871978039</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.5296208725291</v>
+        <v>226.2893205600619</v>
       </c>
       <c r="AD3" t="n">
-        <v>149903.4453279494</v>
+        <v>182836.2966158406</v>
       </c>
       <c r="AE3" t="n">
-        <v>205104.5071708752</v>
+        <v>250164.687197804</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.102836337447548e-06</v>
+        <v>6.092068624594593e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.893880208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>185529.620872529</v>
+        <v>226289.3205600619</v>
       </c>
     </row>
   </sheetData>
@@ -4608,28 +4608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.7194901477223</v>
+        <v>251.341428555363</v>
       </c>
       <c r="AB2" t="n">
-        <v>286.9474585909008</v>
+        <v>343.8964309505342</v>
       </c>
       <c r="AC2" t="n">
-        <v>259.5615958763572</v>
+        <v>311.0754382423901</v>
       </c>
       <c r="AD2" t="n">
-        <v>209719.4901477223</v>
+        <v>251341.428555363</v>
       </c>
       <c r="AE2" t="n">
-        <v>286947.4585909008</v>
+        <v>343896.4309505342</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.42684983088095e-06</v>
+        <v>5.038985560968111e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.261067708333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>259561.5958763572</v>
+        <v>311075.4382423901</v>
       </c>
     </row>
     <row r="3">
@@ -4714,28 +4714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>152.5555775093511</v>
+        <v>185.9896019959375</v>
       </c>
       <c r="AB3" t="n">
-        <v>208.7332714252813</v>
+        <v>254.4791787328655</v>
       </c>
       <c r="AC3" t="n">
-        <v>188.8120609594984</v>
+        <v>230.1920430784455</v>
       </c>
       <c r="AD3" t="n">
-        <v>152555.5775093511</v>
+        <v>185989.6019959375</v>
       </c>
       <c r="AE3" t="n">
-        <v>208733.2714252813</v>
+        <v>254479.1787328655</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.095819747505151e-06</v>
+        <v>6.022667343640454e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.750651041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>188812.0609594984</v>
+        <v>230192.0430784455</v>
       </c>
     </row>
   </sheetData>
@@ -5011,28 +5011,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>302.5149765642241</v>
+        <v>345.425042114421</v>
       </c>
       <c r="AB2" t="n">
-        <v>413.9143369540237</v>
+        <v>472.6257816982899</v>
       </c>
       <c r="AC2" t="n">
-        <v>374.4109335675515</v>
+        <v>427.5190404274551</v>
       </c>
       <c r="AD2" t="n">
-        <v>302514.9765642241</v>
+        <v>345425.042114421</v>
       </c>
       <c r="AE2" t="n">
-        <v>413914.3369540237</v>
+        <v>472625.7816982899</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.744600067749688e-06</v>
+        <v>3.970811919812361e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.162109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>374410.9335675515</v>
+        <v>427519.0404274551</v>
       </c>
     </row>
     <row r="3">
@@ -5117,28 +5117,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>158.4445034452227</v>
+        <v>192.7724842785389</v>
       </c>
       <c r="AB3" t="n">
-        <v>216.7907596918132</v>
+        <v>263.7598175115633</v>
       </c>
       <c r="AC3" t="n">
-        <v>196.1005538546308</v>
+        <v>238.5869507175656</v>
       </c>
       <c r="AD3" t="n">
-        <v>158444.5034452227</v>
+        <v>192772.4842785389</v>
       </c>
       <c r="AE3" t="n">
-        <v>216790.7596918132</v>
+        <v>263759.8175115632</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.056903443420972e-06</v>
+        <v>5.869416364137826e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.552083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>196100.5538546309</v>
+        <v>238586.9507175656</v>
       </c>
     </row>
     <row r="4">
@@ -5223,28 +5223,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>159.517559234645</v>
+        <v>193.8455400679613</v>
       </c>
       <c r="AB4" t="n">
-        <v>218.2589619627805</v>
+        <v>265.2280197825306</v>
       </c>
       <c r="AC4" t="n">
-        <v>197.4286329614924</v>
+        <v>239.9150298244271</v>
       </c>
       <c r="AD4" t="n">
-        <v>159517.559234645</v>
+        <v>193845.5400679613</v>
       </c>
       <c r="AE4" t="n">
-        <v>218258.9619627805</v>
+        <v>265228.0197825306</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.045327617602874e-06</v>
+        <v>5.852668777602254e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.571614583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>197428.6329614923</v>
+        <v>239915.0298244271</v>
       </c>
     </row>
   </sheetData>
@@ -5520,28 +5520,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.896950326909</v>
+        <v>188.1949359136837</v>
       </c>
       <c r="AB2" t="n">
-        <v>213.3050851252266</v>
+        <v>257.4966138915902</v>
       </c>
       <c r="AC2" t="n">
-        <v>192.9475471765032</v>
+        <v>232.9214984606193</v>
       </c>
       <c r="AD2" t="n">
-        <v>155896.950326909</v>
+        <v>188194.9359136837</v>
       </c>
       <c r="AE2" t="n">
-        <v>213305.0851252266</v>
+        <v>257496.6138915903</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.073627197703599e-06</v>
+        <v>6.117303286105241e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.134765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>192947.5471765032</v>
+        <v>232921.4984606193</v>
       </c>
     </row>
     <row r="3">
@@ -5626,28 +5626,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>156.0001285121618</v>
+        <v>188.2981140989366</v>
       </c>
       <c r="AB3" t="n">
-        <v>213.4462580701899</v>
+        <v>257.6377868365535</v>
       </c>
       <c r="AC3" t="n">
-        <v>193.0752467737367</v>
+        <v>233.0491980578528</v>
       </c>
       <c r="AD3" t="n">
-        <v>156000.1285121618</v>
+        <v>188298.1140989366</v>
       </c>
       <c r="AE3" t="n">
-        <v>213446.2580701899</v>
+        <v>257637.7868365535</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.082994198508116e-06</v>
+        <v>6.131369567093036e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.118489583333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>193075.2467737367</v>
+        <v>233049.1980578528</v>
       </c>
     </row>
   </sheetData>
@@ -5923,28 +5923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.7423763678961</v>
+        <v>193.9479954737262</v>
       </c>
       <c r="AB2" t="n">
-        <v>211.7253460982978</v>
+        <v>265.3682037887114</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.5185762251264</v>
+        <v>240.0418348658075</v>
       </c>
       <c r="AD2" t="n">
-        <v>154742.3763678961</v>
+        <v>193947.9954737262</v>
       </c>
       <c r="AE2" t="n">
-        <v>211725.3460982979</v>
+        <v>265368.2037887113</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.95775575733605e-06</v>
+        <v>6.070195025682104e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.723958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>191518.5762251264</v>
+        <v>240041.8348658076</v>
       </c>
     </row>
   </sheetData>
@@ -9617,28 +9617,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.8199866811803</v>
+        <v>202.9906949310447</v>
       </c>
       <c r="AB2" t="n">
-        <v>225.5139771217156</v>
+        <v>277.740824121953</v>
       </c>
       <c r="AC2" t="n">
-        <v>203.9912396561388</v>
+        <v>251.2336296795302</v>
       </c>
       <c r="AD2" t="n">
-        <v>164819.9866811803</v>
+        <v>202990.6949310447</v>
       </c>
       <c r="AE2" t="n">
-        <v>225513.9771217156</v>
+        <v>277740.824121953</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.771563351523843e-06</v>
+        <v>5.892993341290199e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.469401041666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>203991.2396561388</v>
+        <v>251233.6296795302</v>
       </c>
     </row>
   </sheetData>
@@ -9914,28 +9914,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.4063988587051</v>
+        <v>258.363351118289</v>
       </c>
       <c r="AB2" t="n">
-        <v>283.7825850428835</v>
+        <v>353.5041351866517</v>
       </c>
       <c r="AC2" t="n">
-        <v>256.6987734178337</v>
+        <v>319.7661966706067</v>
       </c>
       <c r="AD2" t="n">
-        <v>207406.3988587051</v>
+        <v>258363.3511182889</v>
       </c>
       <c r="AE2" t="n">
-        <v>283782.5850428835</v>
+        <v>353504.1351866517</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.039001793424828e-06</v>
+        <v>4.952588691179243e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.61393229166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>256698.7734178337</v>
+        <v>319766.1966706067</v>
       </c>
     </row>
   </sheetData>
@@ -10211,28 +10211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>186.2550090971183</v>
+        <v>227.655646438652</v>
       </c>
       <c r="AB2" t="n">
-        <v>254.8423204376357</v>
+        <v>311.4884989155078</v>
       </c>
       <c r="AC2" t="n">
-        <v>230.5205270485852</v>
+        <v>281.7604737559579</v>
       </c>
       <c r="AD2" t="n">
-        <v>186255.0090971183</v>
+        <v>227655.646438652</v>
       </c>
       <c r="AE2" t="n">
-        <v>254842.3204376358</v>
+        <v>311488.4989155078</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.621084173620339e-06</v>
+        <v>5.349720250557684e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.854166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>230520.5270485852</v>
+        <v>281760.473755958</v>
       </c>
     </row>
     <row r="3">
@@ -10317,28 +10317,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>151.1852262296993</v>
+        <v>184.3740087865836</v>
       </c>
       <c r="AB3" t="n">
-        <v>206.8582963488309</v>
+        <v>252.2686528288866</v>
       </c>
       <c r="AC3" t="n">
-        <v>187.1160308727998</v>
+        <v>228.192486664249</v>
       </c>
       <c r="AD3" t="n">
-        <v>151185.2262296993</v>
+        <v>184374.0087865836</v>
       </c>
       <c r="AE3" t="n">
-        <v>206858.2963488309</v>
+        <v>252268.6528288866</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.100665363295112e-06</v>
+        <v>6.058244294511233e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.819010416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>187116.0308727998</v>
+        <v>228192.486664249</v>
       </c>
     </row>
   </sheetData>
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>273.4683123501213</v>
+        <v>324.5568685397894</v>
       </c>
       <c r="AB2" t="n">
-        <v>374.1714095279032</v>
+        <v>444.0730259746363</v>
       </c>
       <c r="AC2" t="n">
-        <v>338.4610153554309</v>
+        <v>401.6913196360227</v>
       </c>
       <c r="AD2" t="n">
-        <v>273468.3123501213</v>
+        <v>324556.8685397895</v>
       </c>
       <c r="AE2" t="n">
-        <v>374171.4095279032</v>
+        <v>444073.0259746363</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.892406143186393e-06</v>
+        <v>4.20026258174972e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.68033854166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>338461.0153554309</v>
+        <v>401691.3196360227</v>
       </c>
     </row>
     <row r="3">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>156.8000887613796</v>
+        <v>190.9160201242057</v>
       </c>
       <c r="AB3" t="n">
-        <v>214.5407989749244</v>
+        <v>261.2197213541876</v>
       </c>
       <c r="AC3" t="n">
-        <v>194.0653262307215</v>
+        <v>236.2892777724017</v>
       </c>
       <c r="AD3" t="n">
-        <v>156800.0887613796</v>
+        <v>190916.0201242057</v>
       </c>
       <c r="AE3" t="n">
-        <v>214540.7989749244</v>
+        <v>261219.7213541876</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.071668975908745e-06</v>
+        <v>5.912751528711786e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.587890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>194065.3262307215</v>
+        <v>236289.2777724017</v>
       </c>
     </row>
   </sheetData>
@@ -11017,28 +11017,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>261.4376731990382</v>
+        <v>318.2777336151065</v>
       </c>
       <c r="AB2" t="n">
-        <v>357.7105582870507</v>
+        <v>435.4816365548029</v>
       </c>
       <c r="AC2" t="n">
-        <v>323.5711646540556</v>
+        <v>393.9198803643274</v>
       </c>
       <c r="AD2" t="n">
-        <v>261437.6731990382</v>
+        <v>318277.7336151064</v>
       </c>
       <c r="AE2" t="n">
-        <v>357710.5582870507</v>
+        <v>435481.6365548029</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.469667271675984e-06</v>
+        <v>4.116788201474257e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.07096354166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>323571.1646540556</v>
+        <v>393919.8803643273</v>
       </c>
     </row>
   </sheetData>
@@ -11314,28 +11314,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.354329323696</v>
+        <v>186.0392418809385</v>
       </c>
       <c r="AB2" t="n">
-        <v>211.1944030129961</v>
+        <v>254.547098213481</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.0383056027024</v>
+        <v>230.2534804191567</v>
       </c>
       <c r="AD2" t="n">
-        <v>154354.329323696</v>
+        <v>186039.2418809385</v>
       </c>
       <c r="AE2" t="n">
-        <v>211194.4030129961</v>
+        <v>254547.098213481</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.021301936199561e-06</v>
+        <v>6.120046044644979e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.460286458333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>191038.3056027024</v>
+        <v>230253.4804191567</v>
       </c>
     </row>
   </sheetData>
@@ -11611,28 +11611,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>160.7026716658664</v>
+        <v>193.2823049319701</v>
       </c>
       <c r="AB2" t="n">
-        <v>219.8804850746472</v>
+        <v>264.4573766212873</v>
       </c>
       <c r="AC2" t="n">
-        <v>198.8954001833849</v>
+        <v>239.2179357648881</v>
       </c>
       <c r="AD2" t="n">
-        <v>160702.6716658664</v>
+        <v>193282.3049319701</v>
       </c>
       <c r="AE2" t="n">
-        <v>219880.4850746472</v>
+        <v>264457.3766212873</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.010108377132845e-06</v>
+        <v>5.986733680406234e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.167317708333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>198895.4001833849</v>
+        <v>239217.9357648881</v>
       </c>
     </row>
     <row r="3">
@@ -11717,28 +11717,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>148.7479634318189</v>
+        <v>189.408387487831</v>
       </c>
       <c r="AB3" t="n">
-        <v>203.5235258643267</v>
+        <v>259.1569118690431</v>
       </c>
       <c r="AC3" t="n">
-        <v>184.0995262029558</v>
+        <v>234.4233399293475</v>
       </c>
       <c r="AD3" t="n">
-        <v>148747.9634318189</v>
+        <v>189408.3874878311</v>
       </c>
       <c r="AE3" t="n">
-        <v>203523.5258643267</v>
+        <v>259156.9118690431</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.096643724643302e-06</v>
+        <v>6.115923226115449e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.994791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>184099.5262029558</v>
+        <v>234423.3399293475</v>
       </c>
     </row>
   </sheetData>
